--- a/xlsx/旧金山四十九人_intext.xlsx
+++ b/xlsx/旧金山四十九人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
   <si>
     <t>旧金山四十九人</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80</t>
   </si>
   <si>
-    <t>舊金山灣區</t>
+    <t>旧金山湾区</t>
   </si>
   <si>
     <t>政策_政策_加州_旧金山四十九人</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1</t>
   </si>
   <si>
-    <t>舊金山</t>
+    <t>旧金山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家美式足球聯盟</t>
+    <t>国家美式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A9%84%E6%A6%84%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%9B%83</t>
   </si>
   <si>
-    <t>超級盃</t>
+    <t>超级杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E5%B8%83%E6%9C%97</t>
   </si>
   <si>
-    <t>克里夫蘭布朗</t>
+    <t>克里夫兰布朗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E9%9B%84%E7%8B%AE</t>
@@ -83,37 +83,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%8B%89%E6%96%AF%E7%89%9B%E4%BB%94</t>
   </si>
   <si>
-    <t>達拉斯牛仔</t>
+    <t>达拉斯牛仔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E5%85%AC%E7%BE%8A</t>
   </si>
   <si>
-    <t>洛杉磯公羊</t>
+    <t>洛杉矶公羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%A2%97</t>
   </si>
   <si>
-    <t>超級碗</t>
+    <t>超级碗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E7%81%A3%E5%8C%85%E8%A3%9D%E5%B7%A5</t>
   </si>
   <si>
-    <t>綠灣包裝工</t>
+    <t>绿湾包装工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>紐約巨人</t>
+    <t>纽约巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E5%A4%A7%E7%8D%B5%E9%B7%B9</t>
   </si>
   <si>
-    <t>亞特蘭大獵鷹</t>
+    <t>亚特兰大猎鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E7%9A%84%E6%91%A9%E4%B9%8C%E9%B8%A6</t>
@@ -125,31 +125,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E6%B5%B7%E9%B7%B9</t>
   </si>
   <si>
-    <t>西雅圖海鷹</t>
+    <t>西雅图海鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E8%98%AD%E7%AA%81%E6%93%8A%E8%80%85</t>
   </si>
   <si>
-    <t>奧克蘭突擊者</t>
+    <t>奥克兰突击者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>明尼蘇達維京人</t>
+    <t>明尼苏达维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%B4%85%E4%BA%BA</t>
   </si>
   <si>
-    <t>華盛頓紅人</t>
+    <t>华盛顿红人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E5%85%AD%E5%B1%86%E8%B6%85%E7%B4%9A%E7%9B%83</t>
   </si>
   <si>
-    <t>第十六屆超級盃</t>
+    <t>第十六届超级杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E8%BE%9B%E9%82%A3%E6%8F%90%E5%AD%9F%E5%8A%A0%E6%8B%89%E8%99%8E</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E6%B5%B7%E8%B1%9A</t>
   </si>
   <si>
-    <t>邁阿密海豚</t>
+    <t>迈阿密海豚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B8%89%E5%B1%8A%E8%B6%85%E7%BA%A7%E7%A2%97</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E5%85%AC%E7%BE%8A</t>
   </si>
   <si>
-    <t>聖路易公羊</t>
+    <t>圣路易公羊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%8D%81%E5%9B%9B%E5%B1%8A%E8%B6%85%E7%BA%A7%E7%A2%97</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%8E%E9%A6%AC</t>
   </si>
   <si>
-    <t>丹佛野馬</t>
+    <t>丹佛野马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E5%8D%81%E4%B9%9D%E5%B1%86%E8%B6%85%E7%B4%9A%E7%9B%83</t>
   </si>
   <si>
-    <t>第二十九屆超級盃</t>
+    <t>第二十九届超级杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%9C%B0%E7%89%99%E5%93%A5%E7%94%B5%E5%85%89</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E5%9F%8E%E8%80%81%E9%B7%B9</t>
   </si>
   <si>
-    <t>費城老鷹</t>
+    <t>费城老鹰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E5%B8%95%E6%B9%BE%E6%B5%B7%E7%9B%97</t>
@@ -227,25 +227,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF%E8%81%96%E5%BE%92</t>
   </si>
   <si>
-    <t>紐奧良聖徒</t>
+    <t>纽奥良圣徒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E5%8D%81%E4%B8%83%E5%B1%86%E8%B6%85%E7%B4%9A%E7%9B%83</t>
   </si>
   <si>
-    <t>第四十七屆超級盃</t>
+    <t>第四十七届超级杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BE%85%E8%90%8A%E7%B4%8D%E9%BB%91%E8%B1%B9</t>
   </si>
   <si>
-    <t>卡羅萊納黑豹</t>
+    <t>卡罗莱纳黑豹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E5%A8%9C%E8%B6%85%E7%B4%9A%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>路易斯安娜超級巨蛋</t>
+    <t>路易斯安娜超级巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Barack_Obama</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%BE%8E%E5%BC%8F%E6%A9%84%E6%AC%96%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國家美式橄欖球聯盟</t>
+    <t>国家美式橄榄球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A9%84%E6%A6%84%E7%90%83%E8%81%94%E5%90%88%E4%BC%9A</t>
@@ -281,21 +281,15 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%A3%AB%E9%A0%93%E5%BE%B7%E5%B7%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>休士頓德州人</t>
+    <t>休士顿德州人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%8E%E9%A9%AC</t>
   </si>
   <si>
-    <t>丹佛野马</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86%E6%B5%B7%E8%B1%9A</t>
   </si>
   <si>
-    <t>迈阿密海豚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E6%B3%A2%E5%88%A9%E6%96%AF%E5%B0%8F%E9%A9%AC</t>
   </si>
   <si>
@@ -305,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E%E9%85%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>堪薩斯城酋長</t>
+    <t>堪萨斯城酋长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0%E7%88%B1%E5%9B%BD%E8%80%85</t>
@@ -317,9 +311,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E5%85%B0%E5%B8%83%E6%9C%97</t>
   </si>
   <si>
-    <t>克里夫兰布朗</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E5%85%8B%E9%80%8A%E7%BB%B4%E5%B0%94%E7%BE%8E%E6%B4%B2%E8%99%8E</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF%E7%89%9B%E4%BB%94</t>
   </si>
   <si>
-    <t>达拉斯牛仔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%88%A9%E6%A1%91%E9%82%A3%E7%BA%A2%E9%9B%80</t>
   </si>
   <si>
@@ -371,9 +359,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>纽约巨人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E9%BB%91%E8%B1%B9</t>
   </si>
   <si>
@@ -383,21 +368,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%9F%8E%E8%80%81%E9%B9%B0</t>
   </si>
   <si>
-    <t>费城老鹰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E6%B9%BE%E5%8C%85%E8%A3%85%E5%B7%A5</t>
   </si>
   <si>
-    <t>绿湾包装工</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9B%BE%E6%B5%B7%E9%B9%B0</t>
   </si>
   <si>
-    <t>西雅图海鹰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/NFL%E5%AD%A3%E5%90%8E%E8%B5%9B</t>
   </si>
   <si>
@@ -407,19 +383,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E7%A2%97</t>
   </si>
   <si>
-    <t>超级碗</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E7%9B%83</t>
   </si>
   <si>
-    <t>職業盃</t>
+    <t>职业杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%BE%8E%E5%BC%8F%E8%B6%B3%E7%90%83%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲美式足球聯盟</t>
+    <t>欧洲美式足球联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/49%E9%87%8C%E8%A7%82%E5%85%89%E5%BE%84</t>
@@ -431,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%A1%E7%89%B9%E6%8B%89%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>阿爾卡特拉斯島</t>
+    <t>阿尔卡特拉斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1-%E5%A5%A7%E5%85%8B%E8%98%AD%E6%B5%B7%E7%81%A3%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>舊金山-奧克蘭海灣大橋</t>
+    <t>旧金山-奥克兰海湾大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E6%A5%9A%E8%A1%97</t>
@@ -491,13 +464,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E6%BC%81%E4%BA%BA%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>三藩市漁人碼頭</t>
+    <t>三藩市渔人码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E6%A9%8B</t>
   </si>
   <si>
-    <t>金門大橋</t>
+    <t>金门大桥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E6%9B%B2%E8%8A%B1%E8%A1%97</t>
@@ -521,13 +494,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E7%B9%AA%E5%A5%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>彩繪女士</t>
+    <t>彩绘女士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/39%E8%99%9F%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>39號碼頭</t>
+    <t>39号码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%85%AC%E5%85%B1%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -545,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8A%80%E5%B3%B6_(%E8%88%8A%E9%87%91%E5%B1%B1)</t>
   </si>
   <si>
-    <t>金銀島 (舊金山)</t>
+    <t>金银岛 (旧金山)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%B9%BF%E5%9C%BA_(%E6%97%A7%E9%87%91%E5%B1%B1)</t>
@@ -599,13 +572,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%A7%91%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州科學院</t>
+    <t>加州科学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93%E5%AE%AE_(%E8%88%8A%E9%87%91%E5%B1%B1)</t>
   </si>
   <si>
-    <t>藝術宮 (舊金山)</t>
+    <t>艺术宫 (旧金山)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E5%85%AC%E5%9B%AD</t>
@@ -617,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%8A%B1%E6%BA%AB%E5%AE%A4</t>
   </si>
   <si>
-    <t>百花溫室</t>
+    <t>百花温室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%BB%8B%E7%97%85%E7%BA%AA%E5%BF%B5%E5%9B%AD</t>
@@ -641,13 +614,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E8%A5%BF%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>克里西菲爾德公園</t>
+    <t>克里西菲尔德公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%8B%89%E9%9A%86%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>法拉隆群島</t>
+    <t>法拉隆群岛</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/McLaren_Park</t>
@@ -659,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B3%B0_(%E8%88%8A%E9%87%91%E5%B1%B1)</t>
   </si>
   <si>
-    <t>雙峰 (舊金山)</t>
+    <t>双峰 (旧金山)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%B0%94%C2%B7%E6%A0%BC%E9%9B%B7%E5%8E%84%E5%A7%86%E5%B8%82%E6%94%BF%E7%A4%BC%E5%A0%82</t>
@@ -671,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E5%AE%AE</t>
   </si>
   <si>
-    <t>牛宮</t>
+    <t>牛宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E7%BA%AA%E5%BF%B5%E6%AD%8C%E5%89%A7%E9%99%A2</t>
@@ -689,19 +662,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E5%B7%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>舊金山巨人</t>
+    <t>旧金山巨人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T%E7%90%83%E5%A0%B4</t>
   </si>
   <si>
-    <t>AT&amp;T球場</t>
+    <t>AT&amp;T球场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%95%B7%E9%BB%83%E9%81%93%E8%9F%B9</t>
   </si>
   <si>
-    <t>首長黃道蟹</t>
+    <t>首长黄道蟹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Tadich_Grill</t>
@@ -713,19 +686,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%98%89%E4%BF%A1%E7%90%86%E8%B2%A1%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>嘉信理財集團</t>
+    <t>嘉信理财集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Gap_(%E6%9C%8D%E9%A3%BE)</t>
   </si>
   <si>
-    <t>Gap (服飾)</t>
+    <t>Gap (服饰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E7%93%A6%E9%9B%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>太平洋瓦電公司</t>
+    <t>太平洋瓦电公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%9B%BD%E9%93%B6%E8%A1%8C%E9%9B%86%E5%9B%A2</t>
@@ -737,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E5%9F%8E%E5%B8%82%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>三藩市城市鐵路</t>
+    <t>三藩市城市铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E8%BD%BB%E8%BD%A8</t>
@@ -749,25 +722,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E7%81%A3%E5%8D%80%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>舊金山灣區捷運</t>
+    <t>旧金山湾区捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%81%AB%E8%BB%8A</t>
   </si>
   <si>
-    <t>加州火車</t>
+    <t>加州火车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%90%B5</t>
   </si>
   <si>
-    <t>美鐵</t>
+    <t>美铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%91%E5%B1%B1%E8%B7%A8%E7%81%A3%E8%BD%89%E9%81%8B%E7%AB%99</t>
   </si>
   <si>
-    <t>舊金山跨灣轉運站</t>
+    <t>旧金山跨湾转运站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SamTrans</t>
@@ -785,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%97%A9%E5%B8%82%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>三藩市國際機場</t>
+    <t>三藩市国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA%E6%97%85%E5%AE%A2%E6%8D%B7%E8%BF%90%E7%B3%BB%E7%BB%9F</t>
@@ -2577,7 +2550,7 @@
         <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2603,10 +2576,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2632,10 +2605,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2661,10 +2634,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2690,10 +2663,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2719,10 +2692,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2748,10 +2721,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2777,10 +2750,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2806,10 +2779,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2835,10 +2808,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2864,10 +2837,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2893,10 +2866,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2951,10 +2924,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2980,10 +2953,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3009,10 +2982,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3067,10 +3040,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3096,10 +3069,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3125,10 +3098,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F66" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3270,10 +3243,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F71" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3299,10 +3272,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3328,10 +3301,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F73" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3357,10 +3330,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3386,10 +3359,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3415,10 +3388,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F76" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3444,10 +3417,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3473,10 +3446,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F78" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3502,10 +3475,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F79" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3531,10 +3504,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F80" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3560,10 +3533,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3589,10 +3562,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F82" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3618,10 +3591,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3647,10 +3620,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="F84" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3676,10 +3649,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3705,10 +3678,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F86" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3734,10 +3707,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F87" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3763,10 +3736,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F88" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3792,10 +3765,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F89" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3821,10 +3794,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3850,10 +3823,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3879,10 +3852,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3908,10 +3881,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F93" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3937,10 +3910,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3966,10 +3939,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F95" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3995,10 +3968,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4024,10 +3997,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F97" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4053,10 +4026,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F98" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4082,10 +4055,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F99" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4111,10 +4084,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F100" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4140,10 +4113,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4169,10 +4142,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F102" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4198,10 +4171,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F103" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4227,10 +4200,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F104" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4256,10 +4229,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4285,10 +4258,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4314,10 +4287,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4343,10 +4316,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4372,10 +4345,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F109" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4401,10 +4374,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4430,10 +4403,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4459,10 +4432,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4488,10 +4461,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F113" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4517,10 +4490,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4546,10 +4519,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F115" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4575,10 +4548,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F116" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4604,10 +4577,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F117" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4633,10 +4606,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F118" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4662,10 +4635,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F119" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4691,10 +4664,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F120" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4720,10 +4693,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F121" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4749,10 +4722,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F122" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4778,10 +4751,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F123" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4807,10 +4780,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4836,10 +4809,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F125" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4865,10 +4838,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4894,10 +4867,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4923,10 +4896,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4952,10 +4925,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4981,10 +4954,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5010,10 +4983,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5039,10 +5012,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5068,10 +5041,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5097,10 +5070,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5126,10 +5099,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5155,10 +5128,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5184,10 +5157,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5213,10 +5186,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5242,10 +5215,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5271,10 +5244,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5300,10 +5273,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5329,10 +5302,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5358,10 +5331,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5387,10 +5360,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5416,10 +5389,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5445,10 +5418,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5474,10 +5447,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5503,10 +5476,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5532,10 +5505,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5561,10 +5534,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -5590,10 +5563,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F151" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
